--- a/DatabaseUpdate/ExcelFiles/IdentityDocumentTypes.xlsx
+++ b/DatabaseUpdate/ExcelFiles/IdentityDocumentTypes.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="IdentityDocumentTypes Data" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Data" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -22,28 +22,49 @@
     <x:t>Name</x:t>
   </x:si>
   <x:si>
+    <x:t>Options</x:t>
+  </x:si>
+  <x:si>
     <x:t>1</x:t>
   </x:si>
   <x:si>
     <x:t>Свидетельство о рождении РФ</x:t>
   </x:si>
   <x:si>
+    <x:t>IsRussianBirthCertificate</x:t>
+  </x:si>
+  <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
     <x:t>Паспорт гражданина РФ</x:t>
   </x:si>
   <x:si>
+    <x:t>IsRussianPassport</x:t>
+  </x:si>
+  <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
     <x:t>Паспорт иностранного гражданина</x:t>
   </x:si>
   <x:si>
+    <x:t>NULL</x:t>
+  </x:si>
+  <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
     <x:t>Удостоверение личности</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Заграничный паспорт гражданина РФ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IsRussianForeignPassport</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -394,50 +415,76 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B5"/>
+  <x:dimension ref="A1:C6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
+    <x:row r="1" spans="1:3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2">
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/DatabaseUpdate/ExcelFiles/IdentityDocumentTypes.xlsx
+++ b/DatabaseUpdate/ExcelFiles/IdentityDocumentTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -25,46 +25,211 @@
     <x:t>Options</x:t>
   </x:si>
   <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Свидетельство о рождении РФ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IsRussianBirthCertificate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Паспорт гражданина РФ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IsRussianPassport</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
+    <x:t>BeginDateTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EndDateTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DocSeria</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DocNumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Паспорт гражданина СССР</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R-ББ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>999999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Загранпаспорт гражданина СССР</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Свидетельство о рождении, выданное в Российской Федерации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>|IsRussianBirthCertificate|</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Удостоверение личности офицера</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ББ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9999999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Справка об освобождении из места лишения свободы</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Паспорт Минморфлота</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Военный билет</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9999990</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дипломатический паспорт гражданина Российской Федерации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
   </x:si>
   <x:si>
     <x:t>Паспорт иностранного гражданина</x:t>
   </x:si>
   <x:si>
-    <x:t>NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Удостоверение личности</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Заграничный паспорт гражданина РФ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IsRussianForeignPassport</x:t>
+    <x:t>|IsRussianForeignPassport|</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Свидетельство о регистрации ходатайства о признании иммигранта беженцем на территории Российской Федерации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вид на жительство</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Удостоверение беженца в Российской Федерации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Временное удостоверение личности гражданина Российской Федерации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Паспорт гражданина Российской Федерации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>|IsRussianPassport|</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99 99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Заграничный паспорт гражданина Российской Федерации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Паспорт моряка</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Военный билет офицера запаса</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Иные документы</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Документ иностранного гражданина</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Документ лица без гражданства</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Разрешение на временное проживание</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Свидетельство о рождении, выданное не в Российской Федерации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Свидетельство о предоставлении временного убежища на территории Российской Федерации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ЦЦ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Удостоверение сотрудника Евразийской экономической комиссии</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Копия жалобы о лишении статуса беженца</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Иной документ, соответствующий свидетельству о предоставлении убежища на территории Российской Федерации</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -110,13 +275,20 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -415,13 +587,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C6"/>
+  <x:dimension ref="A1:G27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:7">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -431,60 +603,567 @@
       <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3">
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s"/>
+      <x:c r="D2" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E2" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s"/>
+      <x:c r="D3" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E3" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D4" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E4" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="G4" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
+    </x:row>
+    <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E5" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7">
+      <x:c r="A6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E6" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3">
-      <x:c r="A6" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>16</x:v>
+      <x:c r="G6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7">
+      <x:c r="A7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E7" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7">
+      <x:c r="A8" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E8" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="A9" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E9" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="A10" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D10" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E10" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:7">
+      <x:c r="A11" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E11" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7">
+      <x:c r="A12" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s"/>
+      <x:c r="D12" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E12" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:7">
+      <x:c r="A13" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E13" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:7">
+      <x:c r="A14" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E14" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:7">
+      <x:c r="A15" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E15" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:7">
+      <x:c r="A16" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s"/>
+      <x:c r="D16" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E16" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:7">
+      <x:c r="A17" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s"/>
+      <x:c r="D17" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E17" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:7">
+      <x:c r="A18" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s"/>
+      <x:c r="D18" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E18" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:7">
+      <x:c r="A19" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s"/>
+      <x:c r="D19" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E19" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:7">
+      <x:c r="A20" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s"/>
+      <x:c r="D20" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E20" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:7">
+      <x:c r="A21" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s"/>
+      <x:c r="D21" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E21" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:7">
+      <x:c r="A22" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s"/>
+      <x:c r="D22" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E22" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:7">
+      <x:c r="A23" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s"/>
+      <x:c r="D23" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E23" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:7">
+      <x:c r="A24" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s"/>
+      <x:c r="D24" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E24" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:7">
+      <x:c r="A25" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s"/>
+      <x:c r="D25" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E25" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s"/>
+      <x:c r="G25" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:7">
+      <x:c r="A26" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s"/>
+      <x:c r="D26" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E26" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:7">
+      <x:c r="A27" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s"/>
+      <x:c r="D27" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E27" s="1">
+        <x:v>2958100</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
